--- a/projecttb2d/Comportement.xlsx
+++ b/projecttb2d/Comportement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>Comportement de l'IA</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>S'il n'y a pas d'évènement on reste dans le même état</t>
+  </si>
+  <si>
+    <t>(Pas de changements)</t>
   </si>
 </sst>
 </file>
@@ -266,15 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,13 +1341,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1385,13 +1388,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1432,13 +1435,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1479,13 +1482,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1526,13 +1529,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1573,13 +1576,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1620,13 +1623,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1667,13 +1670,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1714,13 +1717,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1761,13 +1764,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1808,13 +1811,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1855,13 +1858,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1902,13 +1905,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1920,6 +1923,241 @@
         <a:xfrm>
           <a:off x="6181725" y="10439400"/>
           <a:ext cx="4257675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Connecteur droit avec flèche 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="4867275"/>
+          <a:ext cx="1323975" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Connecteur droit avec flèche 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="4924425"/>
+          <a:ext cx="1276350" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connecteur droit avec flèche 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9363075" y="4895850"/>
+          <a:ext cx="1133475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connecteur droit avec flèche 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="5267325"/>
+          <a:ext cx="1133475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Connecteur droit avec flèche 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="6543675"/>
+          <a:ext cx="1238250" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2235,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H58"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,34 +2484,34 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2378,25 +2616,25 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2461,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -2532,86 +2770,119 @@
         <v>4</v>
       </c>
     </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="F44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="1"/>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="F50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="2" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B63:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
